--- a/Code_python/Data/extraction/OIL.xlsx
+++ b/Code_python/Data/extraction/OIL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="5080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5110" uniqueCount="5110">
   <si>
     <t>2000-08-23</t>
   </si>
@@ -15254,6 +15254,96 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
   </si>
 </sst>
 </file>
@@ -15611,7 +15701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5081"/>
+  <dimension ref="A1:B5111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56265,6 +56355,246 @@
         <v>41.70000076293945</v>
       </c>
     </row>
+    <row r="5082" spans="1:2">
+      <c r="A5082" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B5082">
+        <v>42.45999908447266</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:2">
+      <c r="A5083" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B5083">
+        <v>42.84000015258789</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:2">
+      <c r="A5084" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B5084">
+        <v>44.81999969482422</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:2">
+      <c r="A5085" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B5085">
+        <v>45.34000015258789</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:2">
+      <c r="A5086" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B5086">
+        <v>45.08000183105469</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:2">
+      <c r="A5087" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B5087">
+        <v>44.38000106811523</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:2">
+      <c r="A5088" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B5088">
+        <v>44.9900016784668</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:2">
+      <c r="A5089" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B5089">
+        <v>45.63999938964844</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:2">
+      <c r="A5090" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B5090">
+        <v>46.15000152587891</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:2">
+      <c r="A5091" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B5091">
+        <v>45.65999984741211</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:2">
+      <c r="A5092" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B5092">
+        <v>45.59999847412109</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:2">
+      <c r="A5093" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B5093">
+        <v>45.68999862670898</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:2">
+      <c r="A5094" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B5094">
+        <v>46.97000122070312</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:2">
+      <c r="A5095" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B5095">
+        <v>46.72999954223633</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:2">
+      <c r="A5096" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B5096">
+        <v>46.9900016784668</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:2">
+      <c r="A5097" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B5097">
+        <v>47.59999847412109</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:2">
+      <c r="A5098" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B5098">
+        <v>47.84999847412109</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:2">
+      <c r="A5099" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B5099">
+        <v>48.43000030517578</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:2">
+      <c r="A5100" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B5100">
+        <v>48.54000091552734</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:2">
+      <c r="A5101" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B5101">
+        <v>47.93000030517578</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:2">
+      <c r="A5102" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B5102">
+        <v>46.79000091552734</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:2">
+      <c r="A5103" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B5103">
+        <v>48.22999954223633</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:2">
+      <c r="A5104" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B5104">
+        <v>47.72000122070312</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:2">
+      <c r="A5105" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B5105">
+        <v>48.13000106811523</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:2">
+      <c r="A5106" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B5106">
+        <v>48.34999847412109</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:2">
+      <c r="A5107" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B5107">
+        <v>48.40000152587891</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:2">
+      <c r="A5108" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B5108">
+        <v>47.38000106811523</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:2">
+      <c r="A5109" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B5109">
+        <v>49.81999969482422</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:2">
+      <c r="A5110" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B5110">
+        <v>50.52999877929688</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:2">
+      <c r="A5111" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B5111">
+        <v>50.93000030517578</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
